--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="15.24609375" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35760302311885495</v>
+        <v>0.35846936208614605</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32375796165710913</v>
+        <v>0.32437528151698442</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.030320435026242626</v>
+        <v>-0.030400437120417217</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0022751473617790363</v>
+        <v>-0.0023624122927799703</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0011607092542908991</v>
+        <v>-0.0012181717377803892</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0054357301417296867</v>
+        <v>0.0054415117740889227</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00094644555583171667</v>
+        <v>0.0009483813468475421</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0091793830414513555</v>
+        <v>-0.0092113942864095119</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0027084375244567083</v>
+        <v>0.0027084417472890143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32924238576209641</v>
+        <v>0.33095202159321768</v>
       </c>
       <c r="C4" s="0">
-        <v>0.028383371315087551</v>
+        <v>0.029497455803383511</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00036892022012519982</v>
+        <v>0.00036828427186649869</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00075411848375657865</v>
+        <v>-0.00075957410509511908</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00011206690005014738</v>
+        <v>0.0001116387236107137</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.022042688190257044</v>
+        <v>-0.022057876804557452</v>
       </c>
       <c r="J4" s="0">
-        <v>-4.8201294096159567e-07</v>
+        <v>-5.0782121650616446e-07</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00058264564332105584</v>
+        <v>-0.00058267999175837248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36848278160503023</v>
+        <v>0.37105940346038424</v>
       </c>
       <c r="C5" s="0">
-        <v>0.12233740831144102</v>
+        <v>0.12422617855782322</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.050228889786729465</v>
+        <v>-0.051062951400152712</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0045528020331500546</v>
+        <v>0.0045797271363278175</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.008683456445069378</v>
+        <v>-0.0088604886483817109</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.024125707237752324</v>
+        <v>-0.024156322382402558</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0017569299731253914</v>
+        <v>-0.0017678329216179918</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0028034785054593661</v>
+        <v>-0.002799558180672844</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-5.135255352134438e-05</v>
+        <v>-5.1370293756680674e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.43942925246937098</v>
+        <v>0.44033350758239642</v>
       </c>
       <c r="C6" s="0">
-        <v>0.056487088623683006</v>
+        <v>0.054790286802596004</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0024253810292086072</v>
+        <v>-0.0024251914147730641</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0037585920487678433</v>
+        <v>0.0037445983033425763</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0013479066074671771</v>
+        <v>0.0013531014402361271</v>
       </c>
       <c r="I6" s="0">
-        <v>0.011693031454175766</v>
+        <v>0.011726076452040227</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>8.5233159455577745e-05</v>
+        <v>8.5232538570290117e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.42523114051164501</v>
+        <v>0.42401614021980349</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.012730038867338599</v>
+        <v>0.011546992814776598</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0090546032741311532</v>
+        <v>-0.009103832165844478</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.044548250220070543</v>
+        <v>-0.045470800576785562</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012985131271846579</v>
+        <v>0.013032228857683674</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0034275759332385862</v>
+        <v>0.0034160355012714991</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.010261995464051987</v>
+        <v>0.010262008206305351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0099562824876773259</v>
+        <v>-0.0079815286570091848</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.40852213183415809</v>
+        <v>-0.40542657419804728</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00019394756552757554</v>
+        <v>0.00019399354948005022</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0034788796509267234</v>
+        <v>0.0034807184048670217</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00098071082385900519</v>
+        <v>0.00098019259639282852</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.032558206443055182</v>
+        <v>-0.032465387959508693</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0012393772375775547</v>
+        <v>0.001239388730003399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.096619261264774492</v>
+        <v>-0.094296497128715406</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.090231158913468751</v>
+        <v>-0.089925839125838181</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0035752940340745875</v>
+        <v>0.0035870500000170472</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.011147316511529672</v>
+        <v>-0.011012643329825536</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0067364919493429123</v>
+        <v>0.0066175641559228001</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00094921196190311113</v>
+        <v>-0.00093887293294379654</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0032709871492208765</v>
+        <v>0.0032758403202112923</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0020819354771659943</v>
+        <v>0.0020819324407501533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.16999938311764126</v>
+        <v>0.17750625661051539</v>
       </c>
       <c r="C10" s="0">
-        <v>0.3007951605238352</v>
+        <v>0.30616206140485169</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00020226033461495196</v>
+        <v>0.00020226903826614946</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0024298336245011671</v>
+        <v>0.0024335109346680546</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-7.1295721013247859e-05</v>
+        <v>-7.1256303922599066e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.033756448593915363</v>
+        <v>0.033446666127578822</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.079497655872570461</v>
+        <v>-0.079374396762741592</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0090038928991327538</v>
+        <v>0.0090038993005302492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.46650943043313131</v>
+        <v>0.47316273050864688</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.16502641001227017</v>
+        <v>0.16401490896305959</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0098021203110247208</v>
+        <v>0.00980034250428247</v>
       </c>
       <c r="F11" s="0">
-        <v>0.066686061659038662</v>
+        <v>0.066738381185815529</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0082535441419349445</v>
+        <v>-0.0082608067882933532</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0035747012010429449</v>
+        <v>-0.0035730481921814779</v>
       </c>
       <c r="I11" s="0">
-        <v>0.075566486970348457</v>
+        <v>0.075679456897521383</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0087427862942140722</v>
+        <v>-0.0087427606720726359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.22272428244902043</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.15764392649675407</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00018956056519399108</v>
+      </c>
+      <c r="F12" s="0">
+        <v>9.3029709925076414e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>9.6062735222529115e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.049139568442603782</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044033606130610192</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="15.24609375" customWidth="true"/>
-    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35846936208614605</v>
+        <v>0.35766042447687807</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32437528151698442</v>
+        <v>0.3236228084862724</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.030400437120417217</v>
+        <v>-0.030428516362124756</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0023624122927799703</v>
+        <v>-0.0023187117569191235</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0012181717377803892</v>
+        <v>-0.0011655726659051929</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0054415117740889227</v>
+        <v>0.0054586847992591312</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0009483813468475421</v>
+        <v>0.00094628435557687451</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0092113942864095119</v>
+        <v>-0.0092382246800609882</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0027084417472890143</v>
+        <v>0.0027084403195684059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33095202159321768</v>
+        <v>0.3352666252176526</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029497455803383511</v>
+        <v>0.034583562025042348</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00036828427186649869</v>
+        <v>0.00036831850479417745</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00075957410509511908</v>
+        <v>-0.00075802733177580224</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0001116387236107137</v>
+        <v>0.00011177720103782927</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.022057876804557452</v>
+        <v>-0.022078504542984136</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.0782121650616446e-07</v>
+        <v>-5.0552749897353793e-07</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00058267999175837248</v>
+        <v>-0.00058280359723522634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.37105940346038424</v>
+        <v>0.37090825724399717</v>
       </c>
       <c r="C5" s="0">
-        <v>0.12422617855782322</v>
+        <v>0.11962656518841711</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.051062951400152712</v>
+        <v>-0.050971915214724564</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0045797271363278175</v>
+        <v>0.0045678457277702972</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0088604886483817109</v>
+        <v>-0.0086629912511252717</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.024156322382402558</v>
+        <v>-0.02431303799828689</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0017678329216179918</v>
+        <v>-0.0017574571289432949</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.002799558180672844</v>
+        <v>-0.0027960571857652112</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-5.1370293756680674e-05</v>
+        <v>-5.1320110997621349e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.44033350758239642</v>
+        <v>0.44224766009201405</v>
       </c>
       <c r="C6" s="0">
-        <v>0.054790286802596004</v>
+        <v>0.056847336011460012</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0024251914147730641</v>
+        <v>-0.002425313062867385</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0037445983033425763</v>
+        <v>0.0037200049453779156</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0013531014402361271</v>
+        <v>0.0013484931235781931</v>
       </c>
       <c r="I6" s="0">
-        <v>0.011726076452040227</v>
+        <v>0.011763672274049919</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>8.5232538570290117e-05</v>
+        <v>8.5209556418219812e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.42401614021980349</v>
+        <v>0.42463147103810067</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011546992814776598</v>
+        <v>0.010804217562706296</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.009103832165844478</v>
+        <v>-0.0091510889170920463</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.045470800576785562</v>
+        <v>-0.04601579846468435</v>
       </c>
       <c r="G7" s="0">
-        <v>0.013032228857683674</v>
+        <v>0.013073198711303465</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0034160355012714991</v>
+        <v>0.0034112736408866617</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.010262008206305351</v>
+        <v>0.010262008412966594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0079815286570091848</v>
+        <v>-0.0203954556355182</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.40542657419804728</v>
+        <v>-0.41862948733387451</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00019399354948005022</v>
+        <v>0.00019418377461685366</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0034807184048670217</v>
+        <v>0.003486517213718311</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00098019259639282852</v>
+        <v>0.00098169094531745226</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.032465387959508693</v>
+        <v>-0.03229929264992016</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.001239388730003399</v>
+        <v>0.0012394613765231988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.094296497128715406</v>
+        <v>-0.10551912145870596</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.089925839125838181</v>
+        <v>-0.088971224249719399</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0035870500000170472</v>
+        <v>0.003596274209356631</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.011012643329825536</v>
+        <v>-0.01096157942417935</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0066175641559228001</v>
+        <v>0.0067807548743093341</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00093887293294379654</v>
+        <v>-0.00093451443523718527</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0032758403202112923</v>
+        <v>0.0032847123264200368</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0020819324407501533</v>
+        <v>0.0020819108758621807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.17750625661051539</v>
+        <v>0.16908006048222013</v>
       </c>
       <c r="C10" s="0">
-        <v>0.30616206140485169</v>
+        <v>0.30782606314893257</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00020226903826614946</v>
+        <v>0.00020248084078485108</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0024335109346680546</v>
+        <v>0.0024517434929577173</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-7.1256303922599066e-05</v>
+        <v>-7.1164322841731618e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.033446666127578822</v>
+        <v>0.033775451235574599</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.079374396762741592</v>
+        <v>-0.078589271924885323</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0090038993005302492</v>
+        <v>0.0090038794704033198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.47316273050864688</v>
+        <v>0.4688208755848936</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.16401490896305959</v>
+        <v>0.16579703303308008</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00980034250428247</v>
+        <v>0.009983166460778136</v>
       </c>
       <c r="F11" s="0">
-        <v>0.066738381185815529</v>
+        <v>0.068076369458689515</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0082608067882933532</v>
+        <v>-0.0081903002991501484</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0035730481921814779</v>
+        <v>-0.0035320914772240235</v>
       </c>
       <c r="I11" s="0">
-        <v>0.075679456897521383</v>
+        <v>0.076349432920323229</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0087427606720726359</v>
+        <v>-0.0087427949938232996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.22272428244902043</v>
+        <v>0.15839091346928302</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.15764392649675407</v>
+        <v>-0.21103348729134769</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00018956056519399108</v>
+        <v>0.000264195842835767</v>
       </c>
       <c r="F12" s="0">
-        <v>9.3029709925076414e-05</v>
+        <v>-0.015011974869588359</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>9.6062735222529115e-05</v>
+        <v>-0.010428814467592994</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.049139568442603782</v>
+        <v>-0.030103391680049819</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044033606130610192</v>
+        <v>-0.044116489649867474</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.23493312714235534</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.057953968573455056</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.04575755612982995</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.025347866410312923</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0021174672464978209</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0046689117001288962</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0028708831973308733</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.20017927713570827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.1431124640347004</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.017735366453953866</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00061308457654688626</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00052683647066592532</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-3.4887546659825039e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.072832553982632706</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-7.7934077195723761e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,14 +463,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35766042447687807</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.3236228084862724</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.3352666252176526</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.37090825724399717</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.44224766009201405</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.42463147103810067</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>-0.0203954556355182</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.10551912145870596</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.16908006048222013</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.4688208755848936</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.15839091346928302</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.23493312714235534</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.1431124640347004</v>
+        <v>0.14495079289804202</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.017735366453953866</v>
+        <v>0.0022995762759093611</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00061308457654688626</v>
+        <v>-0.00064988038337890916</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00052683647066592532</v>
+        <v>-0.0004039291384849038</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-3.4887546659825039e-05</v>
+        <v>-0.009300475836432856</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.072832553982632706</v>
+        <v>-0.066272318673025479</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-7.7934077195723761e-05</v>
+        <v>-0.015655306488900539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.26061694713909017</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35196415691285043</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.011349609927190233</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.088202652974742807</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.00060914689179614352</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.15376499291801099</v>
       </c>
     </row>
   </sheetData>
